--- a/risk_matrix/risk_matrix_2021.xlsx
+++ b/risk_matrix/risk_matrix_2021.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Risk Matrix" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Risk Matrix" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -512,7 +512,7 @@
       <c r="C2" s="3" t="inlineStr"/>
       <c r="D2" s="3" t="inlineStr"/>
       <c r="E2" s="4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2" s="4" t="n">
         <v>4</v>
@@ -526,17 +526,17 @@
         </is>
       </c>
       <c r="B3" s="4" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="C3" s="3" t="inlineStr"/>
       <c r="D3" s="4" t="n">
         <v>1</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G3" s="3" t="inlineStr"/>
     </row>
@@ -547,15 +547,17 @@
         </is>
       </c>
       <c r="B4" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="C4" s="3" t="inlineStr"/>
+      <c r="D4" s="4" t="n">
         <v>2</v>
       </c>
-      <c r="C4" s="3" t="inlineStr"/>
-      <c r="D4" s="3" t="inlineStr"/>
       <c r="E4" s="4" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G4" s="3" t="inlineStr"/>
     </row>
@@ -578,17 +580,13 @@
           <t>Low-level malicious attack</t>
         </is>
       </c>
-      <c r="B6" s="4" t="n">
-        <v>1</v>
-      </c>
+      <c r="B6" s="3" t="inlineStr"/>
       <c r="C6" s="3" t="inlineStr"/>
       <c r="D6" s="3" t="inlineStr"/>
       <c r="E6" s="4" t="n">
-        <v>2</v>
-      </c>
-      <c r="F6" s="4" t="n">
         <v>1</v>
       </c>
+      <c r="F6" s="3" t="inlineStr"/>
       <c r="G6" s="3" t="inlineStr"/>
     </row>
     <row r="7">
@@ -603,10 +601,10 @@
       <c r="C7" s="3" t="inlineStr"/>
       <c r="D7" s="3" t="inlineStr"/>
       <c r="E7" s="4" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="F7" s="4" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G7" s="3" t="inlineStr"/>
     </row>
